--- a/testcase/edit_khu_tro.xlsx
+++ b/testcase/edit_khu_tro.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Testcase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Python\SeleniumWebDriver\testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,10 +89,10 @@
     <t>Xóm trọ 1</t>
   </si>
   <si>
-    <t>Tên khu trọ không được để trống</t>
-  </si>
-  <si>
     <t>Tên khu trọ</t>
+  </si>
+  <si>
+    <t>Tên khu không được để trống.</t>
   </si>
 </sst>
 </file>
@@ -156,7 +156,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -166,6 +166,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -450,7 +451,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E25"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,7 +467,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -767,8 +768,8 @@
       <c r="E18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>21</v>
+      <c r="F18" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -783,8 +784,8 @@
         <v>17</v>
       </c>
       <c r="E19" s="4"/>
-      <c r="F19" s="2" t="s">
-        <v>21</v>
+      <c r="F19" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -797,8 +798,8 @@
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="2" t="s">
-        <v>21</v>
+      <c r="F20" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -809,8 +810,8 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="2" t="s">
-        <v>21</v>
+      <c r="F21" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -823,8 +824,8 @@
       <c r="E22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>21</v>
+      <c r="F22" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -839,8 +840,8 @@
       <c r="E23" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>21</v>
+      <c r="F23" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -853,8 +854,8 @@
         <v>17</v>
       </c>
       <c r="E24" s="4"/>
-      <c r="F24" s="2" t="s">
-        <v>21</v>
+      <c r="F24" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -869,8 +870,8 @@
       <c r="E25" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>21</v>
+      <c r="F25" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
